--- a/03_Optimus/03_Documents Projet/Fiche_Suivi.xlsx
+++ b/03_Optimus/03_Documents Projet/Fiche_Suivi.xlsx
@@ -12,10 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22580" windowHeight="8870"/>
   </bookViews>
   <sheets>
-    <sheet name="Powertrain" sheetId="1" r:id="rId1"/>
-    <sheet name="LAS" sheetId="2" r:id="rId2"/>
-    <sheet name="Electrical" sheetId="3" r:id="rId3"/>
-    <sheet name="Frame" sheetId="5" r:id="rId4"/>
+    <sheet name="Powertrain_2A" sheetId="6" r:id="rId1"/>
+    <sheet name="Powertrain_1A" sheetId="1" r:id="rId2"/>
+    <sheet name="LAS_2A" sheetId="7" r:id="rId3"/>
+    <sheet name="LAS_1A" sheetId="2" r:id="rId4"/>
+    <sheet name="Electrical_2A" sheetId="8" r:id="rId5"/>
+    <sheet name="Electrical_1A" sheetId="3" r:id="rId6"/>
+    <sheet name="Frame_2A" sheetId="9" r:id="rId7"/>
+    <sheet name="Frame_1A" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Matthieu Jacquet (MJT)</t>
   </si>
@@ -47,12 +51,6 @@
     <t>Ghassen LASSOUED (GLD)</t>
   </si>
   <si>
-    <t>Thibbaut Lassus (TLS)</t>
-  </si>
-  <si>
-    <t>Martin Kasicky (MKI)</t>
-  </si>
-  <si>
     <t>Paul Charcaluk (PCK)</t>
   </si>
   <si>
@@ -65,9 +63,6 @@
     <t>Victor Hugo De Olivera (VDO)</t>
   </si>
   <si>
-    <t>Arthur Delort (ADT)</t>
-  </si>
-  <si>
     <t>Département SEISM</t>
   </si>
   <si>
@@ -105,13 +100,70 @@
   </si>
   <si>
     <t>Département LAS</t>
+  </si>
+  <si>
+    <t>Clement Emerique (CEE)</t>
+  </si>
+  <si>
+    <t>Ludovick Beghin (LDN)</t>
+  </si>
+  <si>
+    <t>Batiste Vidal (BVL)</t>
+  </si>
+  <si>
+    <t>Matthieu Pinay (MPY)</t>
+  </si>
+  <si>
+    <t>Maxime Proriol (MPL)</t>
+  </si>
+  <si>
+    <t>Pierre Alexis Corpechot (PCT)</t>
+  </si>
+  <si>
+    <t>Erwan De Longcamp (EDP)</t>
+  </si>
+  <si>
+    <t>Arthur Perdereau (APU)</t>
+  </si>
+  <si>
+    <t>Aurélien bienner (ABR)</t>
+  </si>
+  <si>
+    <t>Guillaume Touze (GTE)</t>
+  </si>
+  <si>
+    <t>Bob Aubouin (BAT)</t>
+  </si>
+  <si>
+    <t>Guillaume Tsilefski (GTI)</t>
+  </si>
+  <si>
+    <t>Martin Kawczynski (MKI)</t>
+  </si>
+  <si>
+    <t>Benjamin Delande (BDE)</t>
+  </si>
+  <si>
+    <t>Antoine Elain (AEN)</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Tache</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +187,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -174,15 +238,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +249,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,68 +542,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.90625" style="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7265625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="109" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="146" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -553,68 +636,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.90625" style="1"/>
+    <col min="2" max="2" width="40.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="109" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="146" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -633,64 +730,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.90625" style="1"/>
+    <col min="2" max="2" width="40.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="109" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="146" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -709,64 +824,448 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.90625" style="1"/>
+    <col min="2" max="2" width="40.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="146" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CFeuille de suivi</oddHeader>
+    <oddFooter>&amp;CVersion 1.0 du 12/12/18</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="146" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CFeuille de suivi</oddHeader>
+    <oddFooter>&amp;CVersion 1.0 du 12/12/18</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="146" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CFeuille de suivi</oddHeader>
+    <oddFooter>&amp;CVersion 1.0 du 12/12/18</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="146" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CFiche de suivi</oddHeader>
+    <oddFooter>&amp;CVersion 1.0 du 12/12/18</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="146" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="109" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
